--- a/Excel/093_Testes_Entrevistas_1.xlsx
+++ b/Excel/093_Testes_Entrevistas_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arquivos\Documentos\Udemy\EXCEL + POWER BI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9AAB66-973E-4875-9455-DBC5C3DFF35A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099A6C20-4969-457D-9058-D0E565E3ABEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" activeTab="1" xr2:uid="{C162B555-F4AE-41AA-9236-C559E5C69857}"/>
+    <workbookView xWindow="4149" yWindow="4149" windowWidth="16114" windowHeight="13268" activeTab="1" xr2:uid="{C162B555-F4AE-41AA-9236-C559E5C69857}"/>
   </bookViews>
   <sheets>
     <sheet name="Teste 1" sheetId="1" r:id="rId1"/>
@@ -408,6 +408,21 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -423,68 +438,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <b/>
@@ -501,37 +460,8 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="0"/>
+        <color rgb="FF9C0006"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -860,57 +790,57 @@
   <sheetData>
     <row r="1" spans="2:14" s="20" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:14" s="20" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
     </row>
     <row r="3" spans="2:14" s="20" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
     </row>
     <row r="4" spans="2:14" s="20" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
     </row>
     <row r="5" spans="2:14" s="20" customFormat="1" ht="23.15" x14ac:dyDescent="0.6">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="24"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="21" t="s">
         <v>35</v>
       </c>
@@ -919,18 +849,18 @@
     <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
     </row>
     <row r="11" spans="2:14" ht="26.15" x14ac:dyDescent="0.4">
       <c r="D11" s="22"/>
@@ -945,80 +875,80 @@
       <c r="G12" s="22"/>
     </row>
     <row r="14" spans="2:14" ht="54" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="11"/>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="32" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="26"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="11"/>
-      <c r="D15" s="27"/>
+      <c r="D15" s="32"/>
     </row>
     <row r="16" spans="2:14" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="26"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="11"/>
-      <c r="D16" s="27"/>
+      <c r="D16" s="32"/>
     </row>
     <row r="19" spans="2:4" ht="54" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C19" s="11"/>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="32" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="26"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="11"/>
-      <c r="D20" s="27"/>
+      <c r="D20" s="32"/>
     </row>
     <row r="21" spans="2:4" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="26"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="11"/>
-      <c r="D21" s="27"/>
+      <c r="D21" s="32"/>
     </row>
     <row r="24" spans="2:4" ht="54" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C24" s="11"/>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="32" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="26"/>
+      <c r="B25" s="31"/>
       <c r="C25" s="11"/>
-      <c r="D25" s="27"/>
+      <c r="D25" s="32"/>
     </row>
     <row r="26" spans="2:4" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="26"/>
+      <c r="B26" s="31"/>
       <c r="C26" s="11"/>
-      <c r="D26" s="27"/>
+      <c r="D26" s="32"/>
     </row>
     <row r="29" spans="2:4" ht="54" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C29" s="11"/>
-      <c r="D29" s="27" t="s">
+      <c r="D29" s="32" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="26"/>
+      <c r="B30" s="31"/>
       <c r="C30" s="11"/>
-      <c r="D30" s="27"/>
+      <c r="D30" s="32"/>
     </row>
     <row r="31" spans="2:4" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="26"/>
+      <c r="B31" s="31"/>
       <c r="C31" s="11"/>
-      <c r="D31" s="27"/>
+      <c r="D31" s="32"/>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B33" s="2"/>
@@ -1066,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFFDA64-81E5-417C-A4C2-C6C6DCE2E574}">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2157,7 +2087,7 @@
       <c r="D1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="25" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="14" t="s">
@@ -2181,14 +2111,14 @@
       <c r="D2" s="9">
         <v>44674</v>
       </c>
-      <c r="E2" s="31">
+      <c r="E2" s="26">
         <v>21</v>
       </c>
       <c r="F2" s="19">
         <v>56.99</v>
       </c>
       <c r="G2" s="15">
-        <f>E2*F2</f>
+        <f t="shared" ref="G2:G27" si="0">E2*F2</f>
         <v>1196.79</v>
       </c>
     </row>
@@ -2197,7 +2127,7 @@
         <v>3886</v>
       </c>
       <c r="B3" s="6" t="str">
-        <f t="shared" ref="B3:B27" si="0">IF(COUNTIF(A:A,A3)&gt;1,"Duplicados Encontrado","")</f>
+        <f t="shared" ref="B3:B27" si="1">IF(COUNTIF(A:A,A3)&gt;1,"Duplicados Encontrado","")</f>
         <v>Duplicados Encontrado</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -2206,14 +2136,14 @@
       <c r="D3" s="9">
         <v>44656</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="26">
         <v>12</v>
       </c>
       <c r="F3" s="18">
         <v>98.9</v>
       </c>
       <c r="G3" s="15">
-        <f>E3*F3</f>
+        <f t="shared" si="0"/>
         <v>1186.8000000000002</v>
       </c>
     </row>
@@ -2222,7 +2152,7 @@
         <v>2345</v>
       </c>
       <c r="B4" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C4" s="6" t="s">
@@ -2231,14 +2161,14 @@
       <c r="D4" s="9">
         <v>44649</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="26">
         <v>21</v>
       </c>
       <c r="F4" s="17">
         <v>143.12</v>
       </c>
       <c r="G4" s="15">
-        <f>E4*F4</f>
+        <f t="shared" si="0"/>
         <v>3005.52</v>
       </c>
     </row>
@@ -2247,7 +2177,7 @@
         <v>7530</v>
       </c>
       <c r="B5" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C5" s="6" t="s">
@@ -2256,14 +2186,14 @@
       <c r="D5" s="9">
         <v>44645</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="26">
         <v>34</v>
       </c>
       <c r="F5" s="17">
         <v>175</v>
       </c>
       <c r="G5" s="15">
-        <f>E5*F5</f>
+        <f t="shared" si="0"/>
         <v>5950</v>
       </c>
     </row>
@@ -2272,7 +2202,7 @@
         <v>2290</v>
       </c>
       <c r="B6" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C6" s="6" t="s">
@@ -2281,14 +2211,14 @@
       <c r="D6" s="9">
         <v>44641</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="26">
         <v>41</v>
       </c>
       <c r="F6" s="18">
         <v>53.99</v>
       </c>
       <c r="G6" s="15">
-        <f>E6*F6</f>
+        <f t="shared" si="0"/>
         <v>2213.59</v>
       </c>
     </row>
@@ -2297,7 +2227,7 @@
         <v>11340</v>
       </c>
       <c r="B7" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C7" s="6" t="s">
@@ -2306,14 +2236,14 @@
       <c r="D7" s="9">
         <v>44637</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="26">
         <v>14</v>
       </c>
       <c r="F7" s="18">
         <v>149.9</v>
       </c>
       <c r="G7" s="15">
-        <f>E7*F7</f>
+        <f t="shared" si="0"/>
         <v>2098.6</v>
       </c>
     </row>
@@ -2322,7 +2252,7 @@
         <v>5740</v>
       </c>
       <c r="B8" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Duplicados Encontrado</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -2331,14 +2261,14 @@
       <c r="D8" s="9">
         <v>44634</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="26">
         <v>12</v>
       </c>
       <c r="F8" s="18">
         <v>53.91</v>
       </c>
       <c r="G8" s="15">
-        <f>E8*F8</f>
+        <f t="shared" si="0"/>
         <v>646.91999999999996</v>
       </c>
     </row>
@@ -2347,7 +2277,7 @@
         <v>15632</v>
       </c>
       <c r="B9" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C9" s="6" t="s">
@@ -2356,14 +2286,14 @@
       <c r="D9" s="9">
         <v>44633</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="26">
         <v>18</v>
       </c>
       <c r="F9" s="18">
         <v>99.99</v>
       </c>
       <c r="G9" s="15">
-        <f>E9*F9</f>
+        <f t="shared" si="0"/>
         <v>1799.82</v>
       </c>
     </row>
@@ -2372,7 +2302,7 @@
         <v>5982</v>
       </c>
       <c r="B10" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C10" s="6" t="s">
@@ -2381,14 +2311,14 @@
       <c r="D10" s="9">
         <v>44629</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="26">
         <v>9</v>
       </c>
       <c r="F10" s="17">
         <v>50</v>
       </c>
       <c r="G10" s="15">
-        <f>E10*F10</f>
+        <f t="shared" si="0"/>
         <v>450</v>
       </c>
     </row>
@@ -2397,7 +2327,7 @@
         <v>3886</v>
       </c>
       <c r="B11" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Duplicados Encontrado</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -2406,14 +2336,14 @@
       <c r="D11" s="9">
         <v>44625</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="26">
         <v>45</v>
       </c>
       <c r="F11" s="18">
         <v>98.9</v>
       </c>
       <c r="G11" s="15">
-        <f>E11*F11</f>
+        <f t="shared" si="0"/>
         <v>4450.5</v>
       </c>
     </row>
@@ -2422,7 +2352,7 @@
         <v>2714</v>
       </c>
       <c r="B12" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Duplicados Encontrado</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -2431,14 +2361,14 @@
       <c r="D12" s="9">
         <v>44621</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="26">
         <v>29</v>
       </c>
       <c r="F12" s="18">
         <v>31.89</v>
       </c>
       <c r="G12" s="15">
-        <f>E12*F12</f>
+        <f t="shared" si="0"/>
         <v>924.81000000000006</v>
       </c>
     </row>
@@ -2447,7 +2377,7 @@
         <v>13700</v>
       </c>
       <c r="B13" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C13" s="6" t="s">
@@ -2456,14 +2386,14 @@
       <c r="D13" s="9">
         <v>44614</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="26">
         <v>12</v>
       </c>
       <c r="F13" s="17">
         <v>102</v>
       </c>
       <c r="G13" s="15">
-        <f>E13*F13</f>
+        <f t="shared" si="0"/>
         <v>1224</v>
       </c>
     </row>
@@ -2472,7 +2402,7 @@
         <v>5740</v>
       </c>
       <c r="B14" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Duplicados Encontrado</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -2481,14 +2411,14 @@
       <c r="D14" s="9">
         <v>44611</v>
       </c>
-      <c r="E14" s="31">
+      <c r="E14" s="26">
         <v>34</v>
       </c>
       <c r="F14" s="18">
         <v>53.91</v>
       </c>
       <c r="G14" s="15">
-        <f>E14*F14</f>
+        <f t="shared" si="0"/>
         <v>1832.9399999999998</v>
       </c>
     </row>
@@ -2497,7 +2427,7 @@
         <v>17608</v>
       </c>
       <c r="B15" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C15" s="6" t="s">
@@ -2506,14 +2436,14 @@
       <c r="D15" s="9">
         <v>44608</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E15" s="26">
         <v>6</v>
       </c>
       <c r="F15" s="18">
         <v>34.9</v>
       </c>
       <c r="G15" s="15">
-        <f>E15*F15</f>
+        <f t="shared" si="0"/>
         <v>209.39999999999998</v>
       </c>
     </row>
@@ -2522,7 +2452,7 @@
         <v>12630</v>
       </c>
       <c r="B16" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C16" s="6" t="s">
@@ -2531,14 +2461,14 @@
       <c r="D16" s="9">
         <v>44605</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E16" s="26">
         <v>3</v>
       </c>
       <c r="F16" s="17">
         <v>999</v>
       </c>
       <c r="G16" s="15">
-        <f>E16*F16</f>
+        <f t="shared" si="0"/>
         <v>2997</v>
       </c>
     </row>
@@ -2547,7 +2477,7 @@
         <v>7494</v>
       </c>
       <c r="B17" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Duplicados Encontrado</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -2556,14 +2486,14 @@
       <c r="D17" s="9">
         <v>44604</v>
       </c>
-      <c r="E17" s="31">
+      <c r="E17" s="26">
         <v>123</v>
       </c>
       <c r="F17" s="17">
         <v>189</v>
       </c>
       <c r="G17" s="15">
-        <f>E17*F17</f>
+        <f t="shared" si="0"/>
         <v>23247</v>
       </c>
     </row>
@@ -2572,7 +2502,7 @@
         <v>17854</v>
       </c>
       <c r="B18" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C18" s="6" t="s">
@@ -2581,14 +2511,14 @@
       <c r="D18" s="9">
         <v>44602</v>
       </c>
-      <c r="E18" s="31">
+      <c r="E18" s="26">
         <v>4</v>
       </c>
       <c r="F18" s="18">
         <v>116.99</v>
       </c>
       <c r="G18" s="15">
-        <f>E18*F18</f>
+        <f t="shared" si="0"/>
         <v>467.96</v>
       </c>
     </row>
@@ -2597,7 +2527,7 @@
         <v>19160</v>
       </c>
       <c r="B19" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C19" s="6" t="s">
@@ -2606,14 +2536,14 @@
       <c r="D19" s="9">
         <v>44599</v>
       </c>
-      <c r="E19" s="31">
+      <c r="E19" s="26">
         <v>2</v>
       </c>
       <c r="F19" s="18">
         <v>733.9</v>
       </c>
       <c r="G19" s="15">
-        <f>E19*F19</f>
+        <f t="shared" si="0"/>
         <v>1467.8</v>
       </c>
     </row>
@@ -2622,7 +2552,7 @@
         <v>4226</v>
       </c>
       <c r="B20" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C20" s="6" t="s">
@@ -2631,14 +2561,14 @@
       <c r="D20" s="9">
         <v>44596</v>
       </c>
-      <c r="E20" s="31">
+      <c r="E20" s="26">
         <v>45</v>
       </c>
       <c r="F20" s="17">
         <v>49</v>
       </c>
       <c r="G20" s="15">
-        <f>E20*F20</f>
+        <f t="shared" si="0"/>
         <v>2205</v>
       </c>
     </row>
@@ -2647,7 +2577,7 @@
         <v>9988</v>
       </c>
       <c r="B21" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C21" s="6" t="s">
@@ -2656,14 +2586,14 @@
       <c r="D21" s="9">
         <v>44593</v>
       </c>
-      <c r="E21" s="31">
+      <c r="E21" s="26">
         <v>31</v>
       </c>
       <c r="F21" s="18">
         <v>56.99</v>
       </c>
       <c r="G21" s="15">
-        <f>E21*F21</f>
+        <f t="shared" si="0"/>
         <v>1766.69</v>
       </c>
     </row>
@@ -2672,7 +2602,7 @@
         <v>14264</v>
       </c>
       <c r="B22" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C22" s="6" t="s">
@@ -2681,14 +2611,14 @@
       <c r="D22" s="9">
         <v>44587</v>
       </c>
-      <c r="E22" s="31">
+      <c r="E22" s="26">
         <v>23</v>
       </c>
       <c r="F22" s="18">
         <v>165.6</v>
       </c>
       <c r="G22" s="15">
-        <f>E22*F22</f>
+        <f t="shared" si="0"/>
         <v>3808.7999999999997</v>
       </c>
     </row>
@@ -2697,7 +2627,7 @@
         <v>4820</v>
       </c>
       <c r="B23" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C23" s="6" t="s">
@@ -2706,14 +2636,14 @@
       <c r="D23" s="9">
         <v>44582</v>
       </c>
-      <c r="E23" s="31">
+      <c r="E23" s="26">
         <v>20</v>
       </c>
       <c r="F23" s="18">
         <v>37.99</v>
       </c>
       <c r="G23" s="15">
-        <f>E23*F23</f>
+        <f t="shared" si="0"/>
         <v>759.80000000000007</v>
       </c>
     </row>
@@ -2722,7 +2652,7 @@
         <v>7494</v>
       </c>
       <c r="B24" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Duplicados Encontrado</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -2731,14 +2661,14 @@
       <c r="D24" s="9">
         <v>44577</v>
       </c>
-      <c r="E24" s="31">
+      <c r="E24" s="26">
         <v>123</v>
       </c>
       <c r="F24" s="17">
         <v>189</v>
       </c>
       <c r="G24" s="15">
-        <f>E24*F24</f>
+        <f t="shared" si="0"/>
         <v>23247</v>
       </c>
     </row>
@@ -2747,7 +2677,7 @@
         <v>4550</v>
       </c>
       <c r="B25" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C25" s="12" t="s">
@@ -2756,14 +2686,14 @@
       <c r="D25" s="9">
         <v>44572</v>
       </c>
-      <c r="E25" s="31">
+      <c r="E25" s="26">
         <v>12</v>
       </c>
       <c r="F25" s="17">
         <v>1200</v>
       </c>
       <c r="G25" s="15">
-        <f>E25*F25</f>
+        <f t="shared" si="0"/>
         <v>14400</v>
       </c>
     </row>
@@ -2772,7 +2702,7 @@
         <v>2714</v>
       </c>
       <c r="B26" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Duplicados Encontrado</v>
       </c>
       <c r="C26" s="12" t="s">
@@ -2781,14 +2711,14 @@
       <c r="D26" s="9">
         <v>44567</v>
       </c>
-      <c r="E26" s="31">
+      <c r="E26" s="26">
         <v>23</v>
       </c>
       <c r="F26" s="18">
         <v>38.770000000000003</v>
       </c>
       <c r="G26" s="15">
-        <f>E26*F26</f>
+        <f t="shared" si="0"/>
         <v>891.71</v>
       </c>
     </row>
@@ -2797,7 +2727,7 @@
         <v>14624</v>
       </c>
       <c r="B27" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Duplicados Encontrado</v>
       </c>
       <c r="C27" s="6" t="s">
@@ -2806,311 +2736,311 @@
       <c r="D27" s="9">
         <v>44562</v>
       </c>
-      <c r="E27" s="31">
+      <c r="E27" s="26">
         <v>45</v>
       </c>
       <c r="F27" s="19">
         <v>56.99</v>
       </c>
       <c r="G27" s="15">
-        <f>E27*F27</f>
+        <f t="shared" si="0"/>
         <v>2564.5500000000002</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="23" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="18.45" x14ac:dyDescent="0.4">
-      <c r="B30" s="32" t="str">
+      <c r="B30" s="27" t="str">
         <f>CONCATENATE(A2," ;  ",C2," ;  ",TEXT(D2,"dd-mmm-aa")," ;  ",E2," ;  ",TEXT(F2,"R$ #,##"), " ; ",TEXT(G2,"R$ #.###,##"))</f>
         <v>14624 ;  Panela De Pressão ;  23-abr-22 ;  21 ;  R$ 56,99 ; R$ 1.196,79</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D31" s="29"/>
+      <c r="D31" s="24"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D32" s="29"/>
+      <c r="D32" s="24"/>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="D33" s="29"/>
+      <c r="D33" s="24"/>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C34" s="7">
         <f>COUNTIF($A$2:$A$27,A2)</f>
         <v>2</v>
       </c>
-      <c r="D34" s="29" t="str">
+      <c r="D34" s="24" t="str">
         <f>IF(MAX(C34)&gt;1,"Duplicados","Sem Duplicidade")</f>
         <v>Duplicados</v>
       </c>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C35" s="7">
-        <f t="shared" ref="C35:C59" si="1">COUNTIF($A$2:$A$27,A3)</f>
+        <f t="shared" ref="C35:C59" si="2">COUNTIF($A$2:$A$27,A3)</f>
         <v>2</v>
       </c>
-      <c r="D35" s="29" t="str">
-        <f t="shared" ref="D35:D59" si="2">IF(MAX(C35)&gt;1,"Duplicados","Sem Duplicidade")</f>
+      <c r="D35" s="24" t="str">
+        <f t="shared" ref="D35:D59" si="3">IF(MAX(C35)&gt;1,"Duplicados","Sem Duplicidade")</f>
         <v>Duplicados</v>
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C36" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D36" s="29" t="str">
-        <f t="shared" si="2"/>
+      <c r="D36" s="24" t="str">
+        <f t="shared" si="3"/>
         <v>Sem Duplicidade</v>
       </c>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C37" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D37" s="29" t="str">
-        <f t="shared" si="2"/>
+      <c r="D37" s="24" t="str">
+        <f t="shared" si="3"/>
         <v>Sem Duplicidade</v>
       </c>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C38" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D38" s="29" t="str">
-        <f t="shared" si="2"/>
+      <c r="D38" s="24" t="str">
+        <f t="shared" si="3"/>
         <v>Sem Duplicidade</v>
       </c>
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C39" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D39" s="29" t="str">
-        <f t="shared" si="2"/>
+      <c r="D39" s="24" t="str">
+        <f t="shared" si="3"/>
         <v>Sem Duplicidade</v>
       </c>
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C40" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="D40" s="29" t="str">
-        <f t="shared" si="2"/>
+      <c r="D40" s="24" t="str">
+        <f t="shared" si="3"/>
         <v>Duplicados</v>
       </c>
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C41" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D41" s="29" t="str">
-        <f t="shared" si="2"/>
+      <c r="D41" s="24" t="str">
+        <f t="shared" si="3"/>
         <v>Sem Duplicidade</v>
       </c>
     </row>
     <row r="42" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C42" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D42" s="29" t="str">
-        <f t="shared" si="2"/>
+      <c r="D42" s="24" t="str">
+        <f t="shared" si="3"/>
         <v>Sem Duplicidade</v>
       </c>
     </row>
     <row r="43" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C43" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="D43" s="29" t="str">
-        <f t="shared" si="2"/>
+      <c r="D43" s="24" t="str">
+        <f t="shared" si="3"/>
         <v>Duplicados</v>
       </c>
     </row>
     <row r="44" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C44" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="D44" s="29" t="str">
-        <f t="shared" si="2"/>
+      <c r="D44" s="24" t="str">
+        <f t="shared" si="3"/>
         <v>Duplicados</v>
       </c>
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C45" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D45" s="29" t="str">
-        <f t="shared" si="2"/>
+      <c r="D45" s="24" t="str">
+        <f t="shared" si="3"/>
         <v>Sem Duplicidade</v>
       </c>
     </row>
     <row r="46" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C46" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="D46" s="29" t="str">
-        <f t="shared" si="2"/>
+      <c r="D46" s="24" t="str">
+        <f t="shared" si="3"/>
         <v>Duplicados</v>
       </c>
     </row>
     <row r="47" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C47" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D47" s="29" t="str">
-        <f t="shared" si="2"/>
+      <c r="D47" s="24" t="str">
+        <f t="shared" si="3"/>
         <v>Sem Duplicidade</v>
       </c>
     </row>
     <row r="48" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C48" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D48" s="29" t="str">
-        <f t="shared" si="2"/>
+      <c r="D48" s="24" t="str">
+        <f t="shared" si="3"/>
         <v>Sem Duplicidade</v>
       </c>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C49" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="D49" s="29" t="str">
-        <f t="shared" si="2"/>
+      <c r="D49" s="24" t="str">
+        <f t="shared" si="3"/>
         <v>Duplicados</v>
       </c>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C50" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D50" s="29" t="str">
-        <f t="shared" si="2"/>
+      <c r="D50" s="24" t="str">
+        <f t="shared" si="3"/>
         <v>Sem Duplicidade</v>
       </c>
     </row>
     <row r="51" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C51" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D51" s="29" t="str">
-        <f t="shared" si="2"/>
+      <c r="D51" s="24" t="str">
+        <f t="shared" si="3"/>
         <v>Sem Duplicidade</v>
       </c>
     </row>
     <row r="52" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C52" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D52" s="29" t="str">
-        <f t="shared" si="2"/>
+      <c r="D52" s="24" t="str">
+        <f t="shared" si="3"/>
         <v>Sem Duplicidade</v>
       </c>
     </row>
     <row r="53" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C53" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D53" s="29" t="str">
-        <f t="shared" si="2"/>
+      <c r="D53" s="24" t="str">
+        <f t="shared" si="3"/>
         <v>Sem Duplicidade</v>
       </c>
     </row>
     <row r="54" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C54" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D54" s="29" t="str">
-        <f t="shared" si="2"/>
+      <c r="D54" s="24" t="str">
+        <f t="shared" si="3"/>
         <v>Sem Duplicidade</v>
       </c>
     </row>
     <row r="55" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C55" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D55" s="29" t="str">
-        <f t="shared" si="2"/>
+      <c r="D55" s="24" t="str">
+        <f t="shared" si="3"/>
         <v>Sem Duplicidade</v>
       </c>
     </row>
     <row r="56" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C56" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="D56" s="29" t="str">
-        <f t="shared" si="2"/>
+      <c r="D56" s="24" t="str">
+        <f t="shared" si="3"/>
         <v>Duplicados</v>
       </c>
     </row>
     <row r="57" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C57" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D57" s="29" t="str">
-        <f t="shared" si="2"/>
+      <c r="D57" s="24" t="str">
+        <f t="shared" si="3"/>
         <v>Sem Duplicidade</v>
       </c>
     </row>
     <row r="58" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C58" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="D58" s="29" t="str">
-        <f t="shared" si="2"/>
+      <c r="D58" s="24" t="str">
+        <f t="shared" si="3"/>
         <v>Duplicados</v>
       </c>
     </row>
     <row r="59" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C59" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="D59" s="29" t="str">
-        <f t="shared" si="2"/>
+      <c r="D59" s="24" t="str">
+        <f t="shared" si="3"/>
         <v>Duplicados</v>
       </c>
     </row>
     <row r="60" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C60" s="7">
-        <f t="shared" ref="C35:C60" si="3">COUNTIF(A28:A53,A28)</f>
+        <f t="shared" ref="C60" si="4">COUNTIF(A28:A53,A28)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:B27">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E2:E27">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>20</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:B27">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
